--- a/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
+++ b/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/SE_Project_Semantle/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/PycharmProjects/SE_Project_Semantle/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02DC412-DF33-A847-AF40-07C6AE5BAA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA62405-C4A9-C44A-BF46-01F79D10C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{06FFA078-D96E-CA4E-BE05-FA592FBE15F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{06FFA078-D96E-CA4E-BE05-FA592FBE15F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -272,12 +275,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -313,18 +328,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -480,7 +483,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$3:$N$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -604,7 +607,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -810,7 +813,7 @@
             <c:numRef>
               <c:f>Sheet1!$O$3:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -934,7 +937,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3038,8 +3041,8 @@
     <tableColumn id="3" xr3:uid="{676F4498-FEF3-EA47-B70A-D0F6DD060195}" name="5%"/>
     <tableColumn id="7" xr3:uid="{10D4614B-05E7-0C4B-9212-158119227CB5}" name="6%"/>
     <tableColumn id="8" xr3:uid="{C9A96573-5A53-834B-95BB-3A68EF910423}" name="7%" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6E353E5C-4E64-5048-BF39-5399194671B9}" name="8%" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{FF27217B-4404-944A-90F8-E8053017F2FE}" name="9%" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{6E353E5C-4E64-5048-BF39-5399194671B9}" name="8%" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{FF27217B-4404-944A-90F8-E8053017F2FE}" name="9%" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9E7E4807-0CB2-1C42-B388-2C936A0FDF52}" name="10%"/>
     <tableColumn id="5" xr3:uid="{81435C9D-3729-604E-A6CA-9983EDA9A677}" name="20%"/>
     <tableColumn id="6" xr3:uid="{EEB49D68-BC36-204D-AD38-A60D5AED05D3}" name="50%"/>
@@ -3052,16 +3055,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F340024C-3088-1F4C-BDDA-60C87C84B458}" name="Table4" displayName="Table4" ref="M2:P11" totalsRowShown="0">
   <autoFilter ref="M2:P11" xr:uid="{F340024C-3088-1F4C-BDDA-60C87C84B458}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F5EB59AE-E081-E748-B720-29D23C2AAB66}" name="Noise" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F5EB59AE-E081-E748-B720-29D23C2AAB66}" name="Noise" dataDxfId="3">
       <calculatedColumnFormula>Table3[[#Headers],[5%]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B846D4F2-C4CB-274F-AB78-227097F7609A}" name="Average" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{B846D4F2-C4CB-274F-AB78-227097F7609A}" name="Average" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(C2:C41)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E26AF110-F15E-954D-A8C1-0E36D03DBA0F}" name="Variance" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{E26AF110-F15E-954D-A8C1-0E36D03DBA0F}" name="Variance" dataDxfId="0">
       <calculatedColumnFormula>VAR(B3:B42)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D37321B9-DB97-E741-9239-14B0E37BD0D3}" name="Median" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{D37321B9-DB97-E741-9239-14B0E37BD0D3}" name="Median" dataDxfId="1">
       <calculatedColumnFormula>MEDIAN(C3:C42)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3369,7 +3372,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G22"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3470,11 +3473,11 @@
         <f>B2</f>
         <v>0%</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="7">
         <f>AVERAGE(B3:B42)</f>
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <f t="shared" ref="O3" si="0">VAR(B3:B42)</f>
         <v>0</v>
       </c>
@@ -3518,11 +3521,11 @@
         <f>C2</f>
         <v>5%</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <f>AVERAGE(C3:C42)</f>
         <v>18.25</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <f>VAR(C3:C42)</f>
         <v>206.55128205128204</v>
       </c>
@@ -3566,11 +3569,11 @@
         <f>D2</f>
         <v>6%</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <f>AVERAGE(D3:D42)</f>
         <v>100.8</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <f>VAR(D3:D42)</f>
         <v>69005.702564102568</v>
       </c>
@@ -3614,11 +3617,11 @@
         <f>E2</f>
         <v>7%</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <f>AVERAGE(E3:E42)</f>
         <v>330</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <f>VAR(E3:E42)</f>
         <v>293813.12820512819</v>
       </c>
@@ -3670,7 +3673,7 @@
         <f>VAR(F3:F42)</f>
         <v>599541.07628205128</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7">
         <f>MEDIAN(F3:F42)</f>
         <v>35.5</v>
       </c>
@@ -3718,7 +3721,7 @@
         <f>VAR(G3:G42)</f>
         <v>898133.4608974359</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <f>MEDIAN(G3:G42)</f>
         <v>585</v>
       </c>
@@ -3766,7 +3769,7 @@
         <f>VAR(H3:H42)</f>
         <v>1061270.8615384616</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9">
         <f>MEDIAN(H3:H42)</f>
         <v>1148.5</v>
       </c>
@@ -3806,11 +3809,11 @@
         <f>I2</f>
         <v>20%</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <f>AVERAGE(I3:I42)</f>
         <v>2057.7249999999999</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <f>VAR(I3:I42)</f>
         <v>1464368.4096153844</v>
       </c>
@@ -3854,11 +3857,11 @@
         <f>J2</f>
         <v>50%</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <f>AVERAGE(J3:J42)</f>
         <v>2155.6</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <f>VAR(J3:J42)</f>
         <v>1484380.6564102562</v>
       </c>

--- a/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
+++ b/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/PycharmProjects/SE_Project_Semantle/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA62405-C4A9-C44A-BF46-01F79D10C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2A9C8-41AC-3642-9FA9-BD97574DEBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{06FFA078-D96E-CA4E-BE05-FA592FBE15F9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{06FFA078-D96E-CA4E-BE05-FA592FBE15F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$M$3:$M$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$N$3:$N$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$3:$M$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$O$3:$O$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,21 +50,6 @@
     <t>Word</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>columnist</t>
   </si>
   <si>
@@ -188,16 +179,31 @@
     <t>Median</t>
   </si>
   <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>9%</t>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -263,35 +269,35 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -411,8 +417,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -444,42 +450,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$M$3:$M$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5%</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6%</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7%</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8%</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9%</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10%</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20%</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$N$3:$N$11</c:f>
               <c:numCache>
@@ -514,7 +521,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -530,19 +537,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="586956735"/>
         <c:axId val="586958463"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="586956735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -581,11 +586,8 @@
         </c:txPr>
         <c:crossAx val="586958463"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="586958463"/>
         <c:scaling>
@@ -640,7 +642,7 @@
         </c:txPr>
         <c:crossAx val="586956735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -741,8 +743,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -774,42 +776,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$M$3:$M$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5%</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6%</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7%</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8%</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9%</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10%</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20%</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$O$3:$O$11</c:f>
               <c:numCache>
@@ -844,7 +847,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -860,19 +863,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="586956735"/>
         <c:axId val="586958463"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="586956735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -911,11 +912,8 @@
         </c:txPr>
         <c:crossAx val="586958463"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="586958463"/>
         <c:scaling>
@@ -970,7 +968,7 @@
         </c:txPr>
         <c:crossAx val="586956735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1071,8 +1069,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1104,42 +1102,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$M$3:$M$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5%</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6%</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7%</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8%</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9%</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10%</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20%</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$P$3:$P$11</c:f>
               <c:numCache>
@@ -1174,7 +1173,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1190,19 +1189,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="586956735"/>
         <c:axId val="586958463"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="586956735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1241,11 +1238,8 @@
         </c:txPr>
         <c:crossAx val="586958463"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="586958463"/>
         <c:scaling>
@@ -1300,7 +1294,7 @@
         </c:txPr>
         <c:crossAx val="586956735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2920,15 +2914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>18174</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>30874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>43793</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2993,16 +2987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>43793</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>653393</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>50143</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>659743</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3037,15 +3031,15 @@
   <autoFilter ref="A2:J42" xr:uid="{169FC4FD-7BBD-5342-A048-2240725CE815}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C2B0446C-CCF1-5347-9DBA-AE0C9512E5A5}" name="Word"/>
-    <tableColumn id="2" xr3:uid="{7BC2616F-F6D5-3942-B535-9A78B5992B1C}" name="0%"/>
-    <tableColumn id="3" xr3:uid="{676F4498-FEF3-EA47-B70A-D0F6DD060195}" name="5%"/>
-    <tableColumn id="7" xr3:uid="{10D4614B-05E7-0C4B-9212-158119227CB5}" name="6%"/>
-    <tableColumn id="8" xr3:uid="{C9A96573-5A53-834B-95BB-3A68EF910423}" name="7%" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6E353E5C-4E64-5048-BF39-5399194671B9}" name="8%" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{FF27217B-4404-944A-90F8-E8053017F2FE}" name="9%" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9E7E4807-0CB2-1C42-B388-2C936A0FDF52}" name="10%"/>
-    <tableColumn id="5" xr3:uid="{81435C9D-3729-604E-A6CA-9983EDA9A677}" name="20%"/>
-    <tableColumn id="6" xr3:uid="{EEB49D68-BC36-204D-AD38-A60D5AED05D3}" name="50%"/>
+    <tableColumn id="2" xr3:uid="{7BC2616F-F6D5-3942-B535-9A78B5992B1C}" name="0.00"/>
+    <tableColumn id="3" xr3:uid="{676F4498-FEF3-EA47-B70A-D0F6DD060195}" name="5.00"/>
+    <tableColumn id="7" xr3:uid="{10D4614B-05E7-0C4B-9212-158119227CB5}" name="6.00"/>
+    <tableColumn id="8" xr3:uid="{C9A96573-5A53-834B-95BB-3A68EF910423}" name="7.00" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6E353E5C-4E64-5048-BF39-5399194671B9}" name="8.00" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{FF27217B-4404-944A-90F8-E8053017F2FE}" name="9.00" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9E7E4807-0CB2-1C42-B388-2C936A0FDF52}" name="10.00"/>
+    <tableColumn id="5" xr3:uid="{81435C9D-3729-604E-A6CA-9983EDA9A677}" name="20.00"/>
+    <tableColumn id="6" xr3:uid="{EEB49D68-BC36-204D-AD38-A60D5AED05D3}" name="50.00"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,16 +3049,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F340024C-3088-1F4C-BDDA-60C87C84B458}" name="Table4" displayName="Table4" ref="M2:P11" totalsRowShown="0">
   <autoFilter ref="M2:P11" xr:uid="{F340024C-3088-1F4C-BDDA-60C87C84B458}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F5EB59AE-E081-E748-B720-29D23C2AAB66}" name="Noise" dataDxfId="3">
-      <calculatedColumnFormula>Table3[[#Headers],[5%]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F5EB59AE-E081-E748-B720-29D23C2AAB66}" name="Noise" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#Headers],[5.00]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B846D4F2-C4CB-274F-AB78-227097F7609A}" name="Average" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B846D4F2-C4CB-274F-AB78-227097F7609A}" name="Average" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(C2:C41)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E26AF110-F15E-954D-A8C1-0E36D03DBA0F}" name="Variance" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{E26AF110-F15E-954D-A8C1-0E36D03DBA0F}" name="Variance" dataDxfId="2">
       <calculatedColumnFormula>VAR(B3:B42)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D37321B9-DB97-E741-9239-14B0E37BD0D3}" name="Median" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{D37321B9-DB97-E741-9239-14B0E37BD0D3}" name="Median" dataDxfId="3">
       <calculatedColumnFormula>MEDIAN(C3:C42)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3371,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A1B1B-50CB-2749-A91E-78A53C5394F8}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3381,103 +3375,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>13</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>23</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>36</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>48</v>
       </c>
-      <c r="M3" s="1" t="str">
-        <f>B2</f>
-        <v>0%</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <f>AVERAGE(B3:B42)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <f t="shared" ref="O3" si="0">VAR(B3:B42)</f>
         <v>0</v>
       </c>
@@ -3487,45 +3480,44 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>19</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>13</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>26</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3310</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>3405</v>
       </c>
-      <c r="M4" s="1" t="str">
-        <f>C2</f>
-        <v>5%</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5">
         <f>AVERAGE(C3:C42)</f>
         <v>18.25</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <f>VAR(C3:C42)</f>
         <v>206.55128205128204</v>
       </c>
@@ -3535,45 +3527,44 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>22</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>29</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>2577</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2869</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>3395</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>3473</v>
       </c>
-      <c r="M5" s="1" t="str">
-        <f>D2</f>
-        <v>6%</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5">
         <f>AVERAGE(D3:D42)</f>
         <v>100.8</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <f>VAR(D3:D42)</f>
         <v>69005.702564102568</v>
       </c>
@@ -3583,45 +3574,44 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>45</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>1052</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1321</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>1448</v>
       </c>
-      <c r="M6" s="1" t="str">
-        <f>E2</f>
-        <v>7%</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M6" s="7">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
         <f>AVERAGE(E3:E42)</f>
         <v>330</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <f>VAR(E3:E42)</f>
         <v>293813.12820512819</v>
       </c>
@@ -3631,45 +3621,44 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>19</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>42</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>170</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>232</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>266</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>411</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>474</v>
       </c>
-      <c r="M7" s="1" t="str">
-        <f>F2</f>
-        <v>8%</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
         <f>AVERAGE(F3:F42)</f>
         <v>530.47500000000002</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <f>VAR(F3:F42)</f>
         <v>599541.07628205128</v>
       </c>
@@ -3679,45 +3668,44 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>20</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>32</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1017</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1010</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1322</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1469</v>
       </c>
-      <c r="M8" s="1" t="str">
-        <f>G2</f>
-        <v>9%</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5">
         <f>AVERAGE(G3:G42)</f>
         <v>921.77499999999998</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <f>VAR(G3:G42)</f>
         <v>898133.4608974359</v>
       </c>
@@ -3727,45 +3715,44 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>85</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1110</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1808</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2095</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2260</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>2639</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2768</v>
       </c>
-      <c r="M9" s="1" t="str">
-        <f>H2</f>
-        <v>10%</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="5">
         <f>AVERAGE(H3:H42)</f>
         <v>1291.0999999999999</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <f>VAR(H3:H42)</f>
         <v>1061270.8615384616</v>
       </c>
@@ -3775,45 +3762,44 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>18</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>2130</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>2547</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>2856</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>3387</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>3475</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f>I2</f>
-        <v>20%</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="7">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5">
         <f>AVERAGE(I3:I42)</f>
         <v>2057.7249999999999</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <f>VAR(I3:I42)</f>
         <v>1464368.4096153844</v>
       </c>
@@ -3823,45 +3809,44 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>24</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>40</v>
       </c>
-      <c r="M11" s="1" t="str">
-        <f>J2</f>
-        <v>50%</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="7">
+        <v>50</v>
+      </c>
+      <c r="N11" s="5">
         <f>AVERAGE(J3:J42)</f>
         <v>2155.6</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <f>VAR(J3:J42)</f>
         <v>1484380.6564102562</v>
       </c>
@@ -3871,994 +3856,994 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>12</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>25</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>4025</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>4157</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1395</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2063</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>2435</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>2643</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>3089</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>3196</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>39</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>459</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>543</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>595</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>631</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>822</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>56</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>480</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>575</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>622</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>841</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>22</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>39</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>29</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>69</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>1301</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>1509</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>1652</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>15</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>1410</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>1493</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1776</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>1921</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>35</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>53</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>2568</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>3059</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>3178</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>29</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>35</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1676</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>2204</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>2471</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>2658</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>3059</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>3145</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>42</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>758</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>824</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>917</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>976</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1178</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>1282</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>11</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>15</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>22</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>18</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>2137</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>2291</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>2671</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>2805</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>826</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1203</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>1372</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1495</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>1568</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>1807</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1931</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>14</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>17</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>714</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>845</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>908</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>979</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>1179</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>1300</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>17</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>13</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>31</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>26</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>44</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>3582</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>3640</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>13</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>14</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>18</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>13</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>18</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>3209</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>3308</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>15</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>9</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>16</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>32</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>42</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>50</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>3967</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>4018</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>16</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>12</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>21</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>18</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>864</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>831</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>1120</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>1251</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>16</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>77</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>1159</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1352</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>1496</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>1584</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>1858</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>1991</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>968</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1674</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>2100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>2335</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>2482</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>2823</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>2926</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
         <v>34</v>
       </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>97</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>130</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>146</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>156</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>185</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>234</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>8</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>11</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>26</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>32</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>45</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>44</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>85</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>13</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>22</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>298</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>297</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>334</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>353</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>461</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>18</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>174</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>384</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>479</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>518</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>558</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>720</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>20</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>20</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>35</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>59</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>2070</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>2583</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>3824</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>3874</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>13</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>18</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>25</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>26</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>27</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>2112</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>2399</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>2506</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>12</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>33</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>19</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>1944</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>2511</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>2888</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>3581</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>3640</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>16</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>18</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>22</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>36</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>22</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>11</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>2448</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>2584</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>95</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1188</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>1634</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1875</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>2022</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>2120</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>2355</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>2453</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>31</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>26</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>25</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>14</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>1168</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>1245</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>1474</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>1594</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>22</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>28</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>32</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>29</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>38</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>2462</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>2796</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>2906</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
         <v>2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>22</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>29</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>20</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>28</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>2573</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>2714</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>14</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>18</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>25</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>38</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>1527</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>1642</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>1940</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>2058</v>
       </c>
     </row>

--- a/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
+++ b/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/noise_effect_with_queue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/PycharmProjects/SE_Project_Semantle/Semantle_AI/Service/Reports_output/Noise_compare/Queue=True/Multi-Lateration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2A9C8-41AC-3642-9FA9-BD97574DEBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93AB7D6-C597-0C41-9852-F8FFAF294188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{06FFA078-D96E-CA4E-BE05-FA592FBE15F9}"/>
   </bookViews>
@@ -3365,7 +3365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A1B1B-50CB-2749-A91E-78A53C5394F8}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
